--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44883</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45524</v>
+        <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45300</v>
+        <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44301</v>
+        <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45463</v>
+        <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44883</v>
+        <v>45300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45300</v>
+        <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44301</v>
+        <v>45463</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45524</v>
+        <v>44301</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44883</v>
+        <v>45524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45196</v>
+        <v>45463</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45300</v>
+        <v>45196</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45300</v>
+        <v>44883</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44301</v>
+        <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>45300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44301</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45524</v>
+        <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45463</v>
+        <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45196</v>
+        <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44883</v>
+        <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45300</v>
+        <v>45463</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44301</v>
+        <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45524</v>
+        <v>45463</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45463</v>
+        <v>45524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45196</v>
+        <v>44883</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44883</v>
+        <v>45196</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45463</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45524</v>
+        <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44883</v>
+        <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45196</v>
+        <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45524</v>
+        <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45463</v>
+        <v>45524</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45196</v>
+        <v>45300</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44883</v>
+        <v>45300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45300</v>
+        <v>45196</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45300</v>
+        <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44301</v>
+        <v>45463</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -655,14 +655,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 34310-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44883</v>
+        <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 34310-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45524</v>
+        <v>45463</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45300</v>
+        <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45300</v>
+        <v>44883</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45196</v>
+        <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44301</v>
+        <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>44301</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45463</v>
+        <v>44301</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45196</v>
+        <v>44883</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44883</v>
+        <v>45463</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45300</v>
+        <v>45196</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>45300</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44301</v>
+        <v>45300</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>

--- a/Översikt SKURUP.xlsx
+++ b/Översikt SKURUP.xlsx
@@ -575,7 +575,7 @@
         <v>45607</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45524</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 17908-2021</t>
+          <t>A 54782-2022</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44301</v>
+        <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -769,14 +769,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 54782-2022</t>
+          <t>A 45983-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44883</v>
+        <v>45196</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -826,14 +826,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25617-2024</t>
+          <t>A 843-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45463</v>
+        <v>45300</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -883,14 +883,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 45983-2023</t>
+          <t>A 844-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45196</v>
+        <v>45300</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -940,14 +940,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 843-2024</t>
+          <t>A 17908-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45300</v>
+        <v>44301</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -997,14 +997,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 844-2024</t>
+          <t>A 25617-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45300</v>
+        <v>45463</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
